--- a/March 2023/Waypoints Model/results.xlsx
+++ b/March 2023/Waypoints Model/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\AWSDeepracer\March 2023\Waypoints Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ADA2AE-2B3A-4194-850F-6521BC6BC1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD72DC7-39C2-4156-9D04-CEDD23C01961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Model Name</t>
   </si>
@@ -148,6 +148,123 @@
   </si>
   <si>
     <t>WaypointModel-RacingLineWeightIs6-ClockWise-50min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs6-ClockWise-60min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs7-ClockWise-70min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs5-ClockWise-80min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs5-ClockWise-90min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs8-ClockWise-120min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs8-ClockWise-150min-clone-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs8-ClockWise-180min-clone-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs5-ClockWise-240min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs6-ClockWise-270min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs9-ClockWise-300min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs9-ClockWise-330min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs7-ClockWise-400min-clone</t>
+  </si>
+  <si>
+    <t>research_model_v2</t>
+  </si>
+  <si>
+    <t>FastAroundTrackSquared-3h</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs7-ClockWise-430min-clone</t>
+  </si>
+  <si>
+    <t>AlexHamilton</t>
+  </si>
+  <si>
+    <t>FastAroundTrackSquared-5h-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs7-ClockWise-500min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs8-ClockWise-530min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs8-ClockWise-600min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs7-ClockWise-630min-clone</t>
+  </si>
+  <si>
+    <t>FastAroundTrackSquared-7h-clone-clone</t>
+  </si>
+  <si>
+    <t>FastAroundTrackSquared-10h-clone-clone-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs9-ClockWise-700min-clone</t>
+  </si>
+  <si>
+    <t>WaypointModel-RacingLineWeightIs4-ClockWise-730min-clone</t>
+  </si>
+  <si>
+    <t>research_model_v3</t>
+  </si>
+  <si>
+    <t>YourLocalPasonite</t>
+  </si>
+  <si>
+    <t>myrewardfunction3-3h</t>
+  </si>
+  <si>
+    <t>myrewardfunction3-6h-clone</t>
+  </si>
+  <si>
+    <t>research_model_v4</t>
+  </si>
+  <si>
+    <t>myrewardfunction3-8h-clone-clone</t>
+  </si>
+  <si>
+    <t>NotChatGPT3</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>research_model_v5</t>
+  </si>
+  <si>
+    <t>myrewardfunction3-9h-clone-clone</t>
+  </si>
+  <si>
+    <t>research_model_v6</t>
+  </si>
+  <si>
+    <t>myrewardfunction6-10h-clone-clone-clone</t>
   </si>
 </sst>
 </file>
@@ -189,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +336,7 @@
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +591,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$33</c:f>
+              <c:f>Sheet1!$D$25:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -491,16 +609,82 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>730</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$K$33</c:f>
+              <c:f>Sheet1!$K$25:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>571.46100000000001</c:v>
                 </c:pt>
@@ -515,6 +699,72 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>356.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>353.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353.99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>281.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250.012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250.012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250.012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250.012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>243.124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>243.124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220.524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220.524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220.524</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.524</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>215.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>215.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>215.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>215.99100000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>215.99100000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -523,6 +773,178 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4753-4FF3-A93B-B70DDF7FA14D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AlexHamilton</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$54:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$54:$K$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>237.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.19300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.19300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4753-4FF3-A93B-B70DDF7FA14D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>YourLocalPasonite</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$59:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$59:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>230.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.45599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.45599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4753-4FF3-A93B-B70DDF7FA14D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -603,6 +1025,8 @@
         <c:axId val="809691695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1305,15 +1729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>122872</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149542</xdr:rowOff>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1604,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F29" si="2">10-E7</f>
+        <f t="shared" ref="F7:F32" si="2">10-E7</f>
         <v>3</v>
       </c>
       <c r="G7">
@@ -2500,221 +2924,1557 @@
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>10</v>
       </c>
-      <c r="E25" s="9" t="str">
+      <c r="E25" s="6" t="str">
         <f>RIGHT(LEFT(C25,33),1)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>9</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>31</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>461</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J25" s="5" t="str">
         <f t="shared" si="23"/>
         <v>9:31.461</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="5">
         <f t="shared" si="24"/>
         <v>571.46100000000001</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>20</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="6" t="str">
         <f>RIGHT(LEFT(C26,33),1)</f>
         <v>6</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>8</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>24</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>145</v>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="5" t="str">
         <f t="shared" si="23"/>
         <v>8:24.145</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="5">
         <f t="shared" si="24"/>
         <v>504.14499999999998</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="13">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>30</v>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="6" t="str">
         <f>RIGHT(LEFT(C27,33),1)</f>
         <v>6</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>6</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="5" t="str">
         <f>"01"</f>
         <v>01</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>138</v>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="5" t="str">
         <f t="shared" ref="J27" si="25">_xlfn.TEXTJOIN("",FALSE,G27,":",H27,".",I27)</f>
         <v>6:01.138</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="5">
         <f t="shared" ref="K27" si="26">(G27*60)+(H27)+(I27/1000)</f>
         <v>361.13799999999998</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="13">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>40</v>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="6" t="str">
         <f>RIGHT(LEFT(C28,33),1)</f>
         <v>6</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>5</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>57</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="5" t="str">
         <f>"130"</f>
         <v>130</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" s="5" t="str">
         <f t="shared" ref="J28" si="27">_xlfn.TEXTJOIN("",FALSE,G28,":",H28,".",I28)</f>
         <v>5:57.130</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="5">
         <f t="shared" ref="K28" si="28">(G28*60)+(H28)+(I28/1000)</f>
         <v>357.13</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>50</v>
       </c>
-      <c r="E29" s="9" t="str">
+      <c r="E29" s="6" t="str">
         <f>RIGHT(LEFT(C29,33),1)</f>
         <v>6</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>5</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>56</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <v>323</v>
       </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="5" t="str">
         <f t="shared" ref="J29" si="29">_xlfn.TEXTJOIN("",FALSE,G29,":",H29,".",I29)</f>
         <v>5:56.323</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="5">
         <f t="shared" ref="K29" si="30">(G29*60)+(H29)+(I29/1000)</f>
         <v>356.32299999999998</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f>RIGHT(LEFT(C30,33),1)</f>
+        <v>6</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>56</v>
+      </c>
+      <c r="I30">
+        <v>323</v>
+      </c>
+      <c r="J30" s="10" t="str">
+        <f t="shared" ref="J30" si="31">_xlfn.TEXTJOIN("",FALSE,G30,":",H30,".",I30)</f>
+        <v>5:56.323</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" ref="K30" si="32">(G30*60)+(H30)+(I30/1000)</f>
+        <v>356.32299999999998</v>
+      </c>
+      <c r="L30" s="12">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
+      <c r="B31" s="5">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
+        <v>70</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f>RIGHT(LEFT(C31,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5">
+        <v>53</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f>"990"</f>
+        <v>990</v>
+      </c>
+      <c r="J31" s="5" t="str">
+        <f t="shared" ref="J31" si="33">_xlfn.TEXTJOIN("",FALSE,G31,":",H31,".",I31)</f>
+        <v>5:53.990</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" ref="K31" si="34">(G31*60)+(H31)+(I31/1000)</f>
+        <v>353.99</v>
+      </c>
+      <c r="L31" s="13">
+        <v>39</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f>RIGHT(LEFT(C32,33),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F32" s="10">
+        <f>10-E32</f>
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>53</v>
+      </c>
+      <c r="I32" t="str">
+        <f>"990"</f>
+        <v>990</v>
+      </c>
+      <c r="J32" s="10" t="str">
+        <f t="shared" ref="J32" si="35">_xlfn.TEXTJOIN("",FALSE,G32,":",H32,".",I32)</f>
+        <v>5:53.990</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" ref="K32" si="36">(G32*60)+(H32)+(I32/1000)</f>
+        <v>353.99</v>
+      </c>
+      <c r="L32" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>80</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f>RIGHT(LEFT(C33,33),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="10">
+        <f>10-E33</f>
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>53</v>
+      </c>
+      <c r="I33" t="str">
+        <f>"990"</f>
+        <v>990</v>
+      </c>
+      <c r="J33" s="10" t="str">
+        <f t="shared" ref="J33" si="37">_xlfn.TEXTJOIN("",FALSE,G33,":",H33,".",I33)</f>
+        <v>5:53.990</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" ref="K33" si="38">(G33*60)+(H33)+(I33/1000)</f>
+        <v>353.99</v>
+      </c>
+      <c r="L33" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f>RIGHT(LEFT(C34,33),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="10">
+        <f>10-E34</f>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>53</v>
+      </c>
+      <c r="I34" t="str">
+        <f>"990"</f>
+        <v>990</v>
+      </c>
+      <c r="J34" s="10" t="str">
+        <f t="shared" ref="J34:J36" si="39">_xlfn.TEXTJOIN("",FALSE,G34,":",H34,".",I34)</f>
+        <v>5:53.990</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" ref="K34:K36" si="40">(G34*60)+(H34)+(I34/1000)</f>
+        <v>353.99</v>
+      </c>
+      <c r="L34" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5">
+        <v>120</v>
+      </c>
+      <c r="E35" s="6" t="str">
+        <f>RIGHT(LEFT(C35,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <f>10-E35</f>
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5">
+        <v>41</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f>"940"</f>
+        <v>940</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f t="shared" si="39"/>
+        <v>4:41.940</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="40"/>
+        <v>281.94</v>
+      </c>
+      <c r="L35" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>150</v>
+      </c>
+      <c r="E36" s="9" t="str">
+        <f>RIGHT(LEFT(C36,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F36" s="10">
+        <f>10-E36</f>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36" t="str">
+        <f>"012"</f>
+        <v>012</v>
+      </c>
+      <c r="J36" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>4:10.012</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="40"/>
+        <v>250.012</v>
+      </c>
+      <c r="L36" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>180</v>
+      </c>
+      <c r="E37" s="9" t="str">
+        <f>RIGHT(LEFT(C37,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F37" s="10">
+        <f>10-E37</f>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="str">
+        <f>"012"</f>
+        <v>012</v>
+      </c>
+      <c r="J37" s="10" t="str">
+        <f t="shared" ref="J37" si="41">_xlfn.TEXTJOIN("",FALSE,G37,":",H37,".",I37)</f>
+        <v>4:10.012</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" ref="K37" si="42">(G37*60)+(H37)+(I37/1000)</f>
+        <v>250.012</v>
+      </c>
+      <c r="L37" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>180</v>
+      </c>
+      <c r="E38" s="9" t="str">
+        <f>RIGHT(LEFT(C38,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F38" s="10">
+        <f>10-E38</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="str">
+        <f>"012"</f>
+        <v>012</v>
+      </c>
+      <c r="J38" s="10" t="str">
+        <f t="shared" ref="J38" si="43">_xlfn.TEXTJOIN("",FALSE,G38,":",H38,".",I38)</f>
+        <v>4:10.012</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" ref="K38" si="44">(G38*60)+(H38)+(I38/1000)</f>
+        <v>250.012</v>
+      </c>
+      <c r="L38" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <v>240</v>
+      </c>
+      <c r="E39" s="9" t="str">
+        <f>RIGHT(LEFT(C39,33),1)</f>
+        <v>5</v>
+      </c>
+      <c r="F39" s="10">
+        <f>10-E39</f>
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39" t="str">
+        <f>"012"</f>
+        <v>012</v>
+      </c>
+      <c r="J39" s="10" t="str">
+        <f t="shared" ref="J39" si="45">_xlfn.TEXTJOIN("",FALSE,G39,":",H39,".",I39)</f>
+        <v>4:10.012</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" ref="K39" si="46">(G39*60)+(H39)+(I39/1000)</f>
+        <v>250.012</v>
+      </c>
+      <c r="L39" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40">
+        <v>270</v>
+      </c>
+      <c r="E40" s="9" t="str">
+        <f>RIGHT(LEFT(C40,33),1)</f>
+        <v>6</v>
+      </c>
+      <c r="F40" s="10">
+        <f>10-E40</f>
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" t="str">
+        <f>"012"</f>
+        <v>012</v>
+      </c>
+      <c r="J40" s="10" t="str">
+        <f t="shared" ref="J40" si="47">_xlfn.TEXTJOIN("",FALSE,G40,":",H40,".",I40)</f>
+        <v>4:10.012</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" ref="K40" si="48">(G40*60)+(H40)+(I40/1000)</f>
+        <v>250.012</v>
+      </c>
+      <c r="L40" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="5">
+        <v>300</v>
+      </c>
+      <c r="E41" s="6" t="str">
+        <f>RIGHT(LEFT(C41,33),1)</f>
+        <v>9</v>
+      </c>
+      <c r="F41" s="5">
+        <f>10-E41</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>"03"</f>
+        <v>03</v>
+      </c>
+      <c r="I41" s="5">
+        <v>124</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f t="shared" ref="J41" si="49">_xlfn.TEXTJOIN("",FALSE,G41,":",H41,".",I41)</f>
+        <v>4:03.124</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" ref="K41" si="50">(G41*60)+(H41)+(I41/1000)</f>
+        <v>243.124</v>
+      </c>
+      <c r="L41" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42">
+        <v>330</v>
+      </c>
+      <c r="E42" s="9" t="str">
+        <f>RIGHT(LEFT(C42,33),1)</f>
+        <v>9</v>
+      </c>
+      <c r="F42" s="10">
+        <f>10-E42</f>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" t="str">
+        <f>"03"</f>
+        <v>03</v>
+      </c>
+      <c r="I42">
+        <v>124</v>
+      </c>
+      <c r="J42" s="10" t="str">
+        <f t="shared" ref="J42" si="51">_xlfn.TEXTJOIN("",FALSE,G42,":",H42,".",I42)</f>
+        <v>4:03.124</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" ref="K42" si="52">(G42*60)+(H42)+(I42/1000)</f>
+        <v>243.124</v>
+      </c>
+      <c r="L42" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>19</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="5">
+        <v>400</v>
+      </c>
+      <c r="E43" s="6" t="str">
+        <f>RIGHT(LEFT(C43,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F43" s="5">
+        <f>10-E43</f>
+        <v>3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>40</v>
+      </c>
+      <c r="I43" s="5">
+        <v>524</v>
+      </c>
+      <c r="J43" s="5" t="str">
+        <f t="shared" ref="J43" si="53">_xlfn.TEXTJOIN("",FALSE,G43,":",H43,".",I43)</f>
+        <v>3:40.524</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" ref="K43" si="54">(G43*60)+(H43)+(I43/1000)</f>
+        <v>220.524</v>
+      </c>
+      <c r="L43" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>430</v>
+      </c>
+      <c r="E44" s="9" t="str">
+        <f>RIGHT(LEFT(C44,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F44" s="10">
+        <f>10-E44</f>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>524</v>
+      </c>
+      <c r="J44" s="10" t="str">
+        <f t="shared" ref="J44" si="55">_xlfn.TEXTJOIN("",FALSE,G44,":",H44,".",I44)</f>
+        <v>3:40.524</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" ref="K44" si="56">(G44*60)+(H44)+(I44/1000)</f>
+        <v>220.524</v>
+      </c>
+      <c r="L44" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45" s="9" t="str">
+        <f>RIGHT(LEFT(C45,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F45" s="10">
+        <f>10-E45</f>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="I45">
+        <v>524</v>
+      </c>
+      <c r="J45" s="10" t="str">
+        <f t="shared" ref="J45" si="57">_xlfn.TEXTJOIN("",FALSE,G45,":",H45,".",I45)</f>
+        <v>3:40.524</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" ref="K45" si="58">(G45*60)+(H45)+(I45/1000)</f>
+        <v>220.524</v>
+      </c>
+      <c r="L45" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46" s="9" t="str">
+        <f>RIGHT(LEFT(C46,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F46" s="10">
+        <f>10-E46</f>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
+      </c>
+      <c r="I46">
+        <v>524</v>
+      </c>
+      <c r="J46" s="10" t="str">
+        <f t="shared" ref="J46" si="59">_xlfn.TEXTJOIN("",FALSE,G46,":",H46,".",I46)</f>
+        <v>3:40.524</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46" si="60">(G46*60)+(H46)+(I46/1000)</f>
+        <v>220.524</v>
+      </c>
+      <c r="L46" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5">
+        <v>530</v>
+      </c>
+      <c r="E47" s="6" t="str">
+        <f>RIGHT(LEFT(C47,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F47" s="5">
+        <f>10-E47</f>
+        <v>2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3</v>
+      </c>
+      <c r="H47" s="5">
+        <v>35</v>
+      </c>
+      <c r="I47" s="5">
+        <v>991</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f t="shared" ref="J47" si="61">_xlfn.TEXTJOIN("",FALSE,G47,":",H47,".",I47)</f>
+        <v>3:35.991</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" ref="K47" si="62">(G47*60)+(H47)+(I47/1000)</f>
+        <v>215.99100000000001</v>
+      </c>
+      <c r="L47" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>600</v>
+      </c>
+      <c r="E48" s="9" t="str">
+        <f>RIGHT(LEFT(C48,33),1)</f>
+        <v>8</v>
+      </c>
+      <c r="F48" s="10">
+        <f>10-E48</f>
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>35</v>
+      </c>
+      <c r="I48">
+        <v>991</v>
+      </c>
+      <c r="J48" s="10" t="str">
+        <f t="shared" ref="J48" si="63">_xlfn.TEXTJOIN("",FALSE,G48,":",H48,".",I48)</f>
+        <v>3:35.991</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" ref="K48" si="64">(G48*60)+(H48)+(I48/1000)</f>
+        <v>215.99100000000001</v>
+      </c>
+      <c r="L48" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>630</v>
+      </c>
+      <c r="E49" s="9" t="str">
+        <f>RIGHT(LEFT(C49,33),1)</f>
+        <v>7</v>
+      </c>
+      <c r="F49" s="10">
+        <f>10-E49</f>
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>35</v>
+      </c>
+      <c r="I49">
+        <v>991</v>
+      </c>
+      <c r="J49" s="10" t="str">
+        <f t="shared" ref="J49" si="65">_xlfn.TEXTJOIN("",FALSE,G49,":",H49,".",I49)</f>
+        <v>3:35.991</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" ref="K49" si="66">(G49*60)+(H49)+(I49/1000)</f>
+        <v>215.99100000000001</v>
+      </c>
+      <c r="L49" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50">
+        <v>700</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f>RIGHT(LEFT(C50,33),1)</f>
+        <v>9</v>
+      </c>
+      <c r="F50" s="10">
+        <f>10-E50</f>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>35</v>
+      </c>
+      <c r="I50">
+        <v>991</v>
+      </c>
+      <c r="J50" s="10" t="str">
+        <f t="shared" ref="J50" si="67">_xlfn.TEXTJOIN("",FALSE,G50,":",H50,".",I50)</f>
+        <v>3:35.991</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" ref="K50" si="68">(G50*60)+(H50)+(I50/1000)</f>
+        <v>215.99100000000001</v>
+      </c>
+      <c r="L50" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>730</v>
+      </c>
+      <c r="E51" s="9" t="str">
+        <f>RIGHT(LEFT(C51,33),1)</f>
+        <v>4</v>
+      </c>
+      <c r="F51" s="10">
+        <f>10-E51</f>
+        <v>6</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>35</v>
+      </c>
+      <c r="I51">
+        <v>991</v>
+      </c>
+      <c r="J51" s="10" t="str">
+        <f t="shared" ref="J51" si="69">_xlfn.TEXTJOIN("",FALSE,G51,":",H51,".",I51)</f>
+        <v>3:35.991</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" ref="K51" si="70">(G51*60)+(H51)+(I51/1000)</f>
+        <v>215.99100000000001</v>
+      </c>
+      <c r="L51" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>57</v>
+      </c>
+      <c r="I54">
+        <v>128</v>
+      </c>
+      <c r="J54" s="10" t="str">
+        <f t="shared" ref="J54" si="71">_xlfn.TEXTJOIN("",FALSE,G54,":",H54,".",I54)</f>
+        <v>3:57.128</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" ref="K54" si="72">(G54*60)+(H54)+(I54/1000)</f>
+        <v>237.12799999999999</v>
+      </c>
+      <c r="L54" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <f>60*5</f>
+        <v>300</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>50</v>
+      </c>
+      <c r="I55">
+        <v>193</v>
+      </c>
+      <c r="J55" s="10" t="str">
+        <f t="shared" ref="J55" si="73">_xlfn.TEXTJOIN("",FALSE,G55,":",H55,".",I55)</f>
+        <v>3:50.193</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" ref="K55" si="74">(G55*60)+(H55)+(I55/1000)</f>
+        <v>230.19300000000001</v>
+      </c>
+      <c r="L55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <f>60*7</f>
+        <v>420</v>
+      </c>
+      <c r="E56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>193</v>
+      </c>
+      <c r="J56" s="10" t="str">
+        <f t="shared" ref="J56" si="75">_xlfn.TEXTJOIN("",FALSE,G56,":",H56,".",I56)</f>
+        <v>3:50.193</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" ref="K56" si="76">(G56*60)+(H56)+(I56/1000)</f>
+        <v>230.19300000000001</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <f>60*10</f>
+        <v>600</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
+      </c>
+      <c r="I57">
+        <v>193</v>
+      </c>
+      <c r="J57" s="10" t="str">
+        <f t="shared" ref="J57" si="77">_xlfn.TEXTJOIN("",FALSE,G57,":",H57,".",I57)</f>
+        <v>3:50.193</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" ref="K57" si="78">(G57*60)+(H57)+(I57/1000)</f>
+        <v>230.19300000000001</v>
+      </c>
+      <c r="L57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E59" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" t="s">
+        <v>51</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>50</v>
+      </c>
+      <c r="I59">
+        <v>138</v>
+      </c>
+      <c r="J59" s="10" t="str">
+        <f t="shared" ref="J59:J62" si="79">_xlfn.TEXTJOIN("",FALSE,G59,":",H59,".",I59)</f>
+        <v>3:50.138</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" ref="K59:K62" si="80">(G59*60)+(H59)+(I59/1000)</f>
+        <v>230.13800000000001</v>
+      </c>
+      <c r="L59" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>47</v>
+      </c>
+      <c r="I60">
+        <v>922</v>
+      </c>
+      <c r="J60" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v>3:47.922</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" si="80"/>
+        <v>227.922</v>
+      </c>
+      <c r="L60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <f>8*60</f>
+        <v>480</v>
+      </c>
+      <c r="E61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>41</v>
+      </c>
+      <c r="I61">
+        <v>660</v>
+      </c>
+      <c r="J61" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v>3:41.660</v>
+      </c>
+      <c r="K61" s="10">
+        <f t="shared" si="80"/>
+        <v>221.66</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62">
+        <f>9*60</f>
+        <v>540</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62">
+        <v>41</v>
+      </c>
+      <c r="I62">
+        <v>456</v>
+      </c>
+      <c r="J62" s="10" t="str">
+        <f t="shared" si="79"/>
+        <v>3:41.456</v>
+      </c>
+      <c r="K62" s="10">
+        <f t="shared" si="80"/>
+        <v>221.45599999999999</v>
+      </c>
+      <c r="L62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>600</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+      <c r="H63">
+        <v>41</v>
+      </c>
+      <c r="I63">
+        <v>456</v>
+      </c>
+      <c r="J63" s="10" t="str">
+        <f t="shared" ref="J63" si="81">_xlfn.TEXTJOIN("",FALSE,G63,":",H63,".",I63)</f>
+        <v>3:41.456</v>
+      </c>
+      <c r="K63" s="10">
+        <f t="shared" ref="K63" si="82">(G63*60)+(H63)+(I63/1000)</f>
+        <v>221.45599999999999</v>
+      </c>
+      <c r="L63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65">
+        <f>3*60</f>
+        <v>180</v>
+      </c>
+      <c r="E65" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>57</v>
+      </c>
+      <c r="I65">
+        <v>594</v>
+      </c>
+      <c r="J65" s="10" t="str">
+        <f t="shared" ref="J65" si="83">_xlfn.TEXTJOIN("",FALSE,G65,":",H65,".",I65)</f>
+        <v>3:57.594</v>
+      </c>
+      <c r="K65" s="10">
+        <f t="shared" ref="K65" si="84">(G65*60)+(H65)+(I65/1000)</f>
+        <v>237.59399999999999</v>
+      </c>
+      <c r="L65" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B64:L64"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B53:L53"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="J2:K3"/>

--- a/March 2023/Waypoints Model/results.xlsx
+++ b/March 2023/Waypoints Model/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sixtium\Documents\GitStuff\AWSDeepracer\March 2023\Waypoints Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD72DC7-39C2-4156-9D04-CEDD23C01961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F07567E-61DD-4B6C-9436-FD2BD1773469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13404" yWindow="0" windowWidth="9636" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="86">
   <si>
     <t>Model Name</t>
   </si>
@@ -265,16 +266,57 @@
   </si>
   <si>
     <t>myrewardfunction6-10h-clone-clone-clone</t>
+  </si>
+  <si>
+    <t>ProcessingModel</t>
+  </si>
+  <si>
+    <t>jay_model</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>chat_gpt_3_model</t>
+  </si>
+  <si>
+    <t>speed_model</t>
+  </si>
+  <si>
+    <t>speed_model_v2</t>
+  </si>
+  <si>
+    <t>SuperMinimalist</t>
+  </si>
+  <si>
+    <t>super_minimalist</t>
+  </si>
+  <si>
+    <t>speed_model_v3</t>
+  </si>
+  <si>
+    <t>NumbericNumbers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000716"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -306,8 +348,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,28 +371,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +415,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Data!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -389,32 +425,46 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$23</c:f>
+              <c:f>Data!$D$5:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -480,7 +530,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$23</c:f>
+              <c:f>Data!$K$5:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -547,7 +597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4753-4FF3-A93B-B70DDF7FA14D}"/>
+              <c16:uniqueId val="{00000000-B1F0-4030-BB8D-F13AADCDDB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -556,7 +606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
+              <c:f>Data!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -566,32 +616,46 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$51</c:f>
+              <c:f>Data!$D$25:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -681,7 +745,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$25:$K$51</c:f>
+              <c:f>Data!$K$25:$K$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -772,7 +836,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4753-4FF3-A93B-B70DDF7FA14D}"/>
+              <c16:uniqueId val="{00000001-B1F0-4030-BB8D-F13AADCDDB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -781,7 +845,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$53</c:f>
+              <c:f>Data!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -791,32 +855,46 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$54:$D$58</c:f>
+              <c:f>Data!$D$54:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -837,7 +915,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$54:$K$58</c:f>
+              <c:f>Data!$K$54:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -859,7 +937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4753-4FF3-A93B-B70DDF7FA14D}"/>
+              <c16:uniqueId val="{00000002-B1F0-4030-BB8D-F13AADCDDB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,32 +948,46 @@
             <c:v>YourLocalPasonite</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$59:$D$63</c:f>
+              <c:f>Data!$D$59:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -919,7 +1011,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$59:$K$63</c:f>
+              <c:f>Data!$K$59:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -944,7 +1036,635 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4753-4FF3-A93B-B70DDF7FA14D}"/>
+              <c16:uniqueId val="{00000003-B1F0-4030-BB8D-F13AADCDDB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NotChatGPT3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$65:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$65:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>237.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218.99100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B1F0-4030-BB8D-F13AADCDDB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProcessingModel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$70:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$70:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>487.05200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.27199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>296.01299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.40300000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293.33699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293.06099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>293.935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B1F0-4030-BB8D-F13AADCDDB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speed_model</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$80:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$80:$K$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>315.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.67399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244.392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.79499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B1F0-4030-BB8D-F13AADCDDB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SuperMinimalist</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$87:$D$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$87:$K$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>238.98599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240.32900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>219.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>214.47399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215.131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>216.14500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>221.39099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>215.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>218.45699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B1F0-4030-BB8D-F13AADCDDB4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NumbericNumbers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$D$98:$D$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$98:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>220.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221.05699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.59299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.72499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212.85900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207.32599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B1F0-4030-BB8D-F13AADCDDB4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,9 +1690,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -988,9 +1709,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1004,9 +1724,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1025,8 +1744,8 @@
         <c:axId val="809691695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300"/>
-          <c:min val="200"/>
+          <c:max val="260"/>
+          <c:min val="190"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1034,9 +1753,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1052,9 +1772,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1068,9 +1787,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1094,7 +1812,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,9 +1828,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1137,11 +1854,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1160,11 +1880,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1209,56 +1924,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1266,16 +1971,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1285,23 +1989,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1309,63 +2008,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1389,21 +2148,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1413,20 +2169,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1438,14 +2193,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1457,14 +2211,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1476,14 +2229,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1495,9 +2242,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1514,9 +2262,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1528,14 +2277,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1547,14 +2295,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1566,27 +2313,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1594,9 +2340,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1606,14 +2351,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1625,12 +2369,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1639,14 +2382,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1655,9 +2399,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1667,17 +2410,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1689,66 +2433,62 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8EC507B4-8312-41E8-AEDE-5BED817F33AD}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92392</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>283845</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B61F1AD-D4E4-ED85-DE58-96F575CEF8CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9936CCE6-69A0-CDBA-757C-8C003C8069C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1761,7 +2501,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2028,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="C81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,165 +2790,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>240</v>
       </c>
-      <c r="E5" s="6" t="str">
-        <f>RIGHT(LEFT(C5,33),1)</f>
+      <c r="E5" s="3" t="str">
+        <f t="shared" ref="E5:E10" si="0">RIGHT(LEFT(C5,33),1)</f>
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <f>10-E5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>15</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>528</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="2" t="str">
         <f>_xlfn.TEXTJOIN("",FALSE,G5,":",H5,".",I5)</f>
         <v>4:15.528</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <f>(G5*60)+(H5)+(I5/1000)</f>
         <v>255.52799999999999</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="6" t="str">
-        <f>RIGHT(LEFT(C6,33),1)</f>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <f>10-E6</f>
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>11</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>924</v>
       </c>
-      <c r="J6" s="5" t="str">
-        <f t="shared" ref="J6:J9" si="0">_xlfn.TEXTJOIN("",FALSE,G6,":",H6,".",I6)</f>
+      <c r="J6" s="2" t="str">
+        <f t="shared" ref="J6:J9" si="1">_xlfn.TEXTJOIN("",FALSE,G6,":",H6,".",I6)</f>
         <v>4:11.924</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" ref="K6:K10" si="1">(G6*60)+(H6)+(I6/1000)</f>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6:K10" si="2">(G6*60)+(H6)+(I6/1000)</f>
         <v>251.92400000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7">
         <v>8</v>
       </c>
@@ -2218,82 +2958,82 @@
       <c r="D7">
         <v>260</v>
       </c>
-      <c r="E7" s="4" t="str">
-        <f>RIGHT(LEFT(C7,33),1)</f>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F32" si="2">10-E7</f>
+        <f t="shared" ref="F7:F31" si="3">10-E7</f>
         <v>3</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:L7" si="3">G6</f>
+        <f t="shared" ref="G7:L7" si="4">G6</f>
         <v>4</v>
       </c>
       <c r="H7">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>924</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>4:11.924</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>251.92400000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>270</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>924</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="3"/>
-        <v>4:11.924</v>
-      </c>
-      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" ref="H8:H18" si="5">"05"</f>
+        <v>05</v>
+      </c>
+      <c r="I8" s="2">
+        <v>113</v>
+      </c>
+      <c r="J8" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>251.92400000000001</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>270</v>
-      </c>
-      <c r="E8" s="6" t="str">
-        <f>RIGHT(LEFT(C8,33),1)</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="5">
+        <v>4:05.113</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f>"05"</f>
-        <v>05</v>
-      </c>
-      <c r="I8" s="5">
-        <v>113</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>4:05.113</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="1"/>
         <v>245.113</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9">
         <v>10</v>
       </c>
@@ -2303,30 +3043,30 @@
       <c r="D9">
         <v>280</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f>RIGHT(LEFT(C9,33),1)</f>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I9">
         <v>113</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:05.113</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245.113</v>
       </c>
       <c r="L9">
@@ -2334,7 +3074,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10">
         <v>11</v>
       </c>
@@ -2344,30 +3084,30 @@
       <c r="D10">
         <v>290</v>
       </c>
-      <c r="E10" s="4" t="str">
-        <f>RIGHT(LEFT(C10,33),1)</f>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I10">
         <v>113</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ref="J10" si="4">_xlfn.TEXTJOIN("",FALSE,G10,":",H10,".",I10)</f>
+        <f t="shared" ref="J10" si="6">_xlfn.TEXTJOIN("",FALSE,G10,":",H10,".",I10)</f>
         <v>4:05.113</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245.113</v>
       </c>
       <c r="L10">
@@ -2375,7 +3115,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11">
         <v>12</v>
       </c>
@@ -2385,29 +3125,29 @@
       <c r="D11">
         <v>300</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I11">
         <v>113</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ref="J11:J14" si="5">_xlfn.TEXTJOIN("",FALSE,G11,":",H11,".",I11)</f>
+        <f t="shared" ref="J11:J14" si="7">_xlfn.TEXTJOIN("",FALSE,G11,":",H11,".",I11)</f>
         <v>4:05.113</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K14" si="6">(G11*60)+(H11)+(I11/1000)</f>
+        <f t="shared" ref="K11:K14" si="8">(G11*60)+(H11)+(I11/1000)</f>
         <v>245.113</v>
       </c>
       <c r="L11">
@@ -2415,7 +3155,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12">
         <v>13</v>
       </c>
@@ -2425,30 +3165,30 @@
       <c r="D12">
         <v>310</v>
       </c>
-      <c r="E12" s="4" t="str">
-        <f>RIGHT(LEFT(C12,33),1)</f>
+      <c r="E12" s="1" t="str">
+        <f t="shared" ref="E12:E23" si="9">RIGHT(LEFT(C12,33),1)</f>
         <v>8</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
       <c r="H12" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I12">
         <v>113</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4:05.113</v>
       </c>
       <c r="K12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>245.113</v>
       </c>
       <c r="L12">
@@ -2456,7 +3196,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13">
         <v>14</v>
       </c>
@@ -2466,30 +3206,30 @@
       <c r="D13">
         <v>330</v>
       </c>
-      <c r="E13" s="4" t="str">
-        <f>RIGHT(LEFT(C13,33),1)</f>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I13">
         <v>113</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4:05.113</v>
       </c>
       <c r="K13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>245.113</v>
       </c>
       <c r="L13">
@@ -2497,7 +3237,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14">
         <v>15</v>
       </c>
@@ -2507,30 +3247,30 @@
       <c r="D14">
         <v>340</v>
       </c>
-      <c r="E14" s="4" t="str">
-        <f>RIGHT(LEFT(C14,33),1)</f>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I14">
         <v>113</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4:05.113</v>
       </c>
       <c r="K14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>245.113</v>
       </c>
       <c r="L14">
@@ -2538,7 +3278,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15">
         <v>16</v>
       </c>
@@ -2548,30 +3288,30 @@
       <c r="D15">
         <v>340</v>
       </c>
-      <c r="E15" s="4" t="str">
-        <f>RIGHT(LEFT(C15,33),1)</f>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
       <c r="H15" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I15">
         <v>113</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15" si="7">_xlfn.TEXTJOIN("",FALSE,G15,":",H15,".",I15)</f>
+        <f t="shared" ref="J15" si="10">_xlfn.TEXTJOIN("",FALSE,G15,":",H15,".",I15)</f>
         <v>4:05.113</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15" si="8">(G15*60)+(H15)+(I15/1000)</f>
+        <f t="shared" ref="K15" si="11">(G15*60)+(H15)+(I15/1000)</f>
         <v>245.113</v>
       </c>
       <c r="L15">
@@ -2579,7 +3319,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16">
         <v>17</v>
       </c>
@@ -2589,30 +3329,30 @@
       <c r="D16">
         <v>350</v>
       </c>
-      <c r="E16" s="4" t="str">
-        <f>RIGHT(LEFT(C16,33),1)</f>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I16">
         <v>113</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ref="J16" si="9">_xlfn.TEXTJOIN("",FALSE,G16,":",H16,".",I16)</f>
+        <f t="shared" ref="J16" si="12">_xlfn.TEXTJOIN("",FALSE,G16,":",H16,".",I16)</f>
         <v>4:05.113</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16" si="10">(G16*60)+(H16)+(I16/1000)</f>
+        <f t="shared" ref="K16" si="13">(G16*60)+(H16)+(I16/1000)</f>
         <v>245.113</v>
       </c>
       <c r="L16">
@@ -2620,7 +3360,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -2632,30 +3372,30 @@
       <c r="D17">
         <v>400</v>
       </c>
-      <c r="E17" s="4" t="str">
-        <f>RIGHT(LEFT(C17,33),1)</f>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I17">
         <v>113</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ref="J17" si="11">_xlfn.TEXTJOIN("",FALSE,G17,":",H17,".",I17)</f>
+        <f t="shared" ref="J17" si="14">_xlfn.TEXTJOIN("",FALSE,G17,":",H17,".",I17)</f>
         <v>4:05.113</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17" si="12">(G17*60)+(H17)+(I17/1000)</f>
+        <f t="shared" ref="K17" si="15">(G17*60)+(H17)+(I17/1000)</f>
         <v>245.113</v>
       </c>
       <c r="L17">
@@ -2663,7 +3403,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18">
         <v>19</v>
       </c>
@@ -2673,30 +3413,30 @@
       <c r="D18">
         <v>430</v>
       </c>
-      <c r="E18" s="4" t="str">
-        <f>RIGHT(LEFT(C18,33),1)</f>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="str">
-        <f>"05"</f>
+        <f t="shared" si="5"/>
         <v>05</v>
       </c>
       <c r="I18">
         <v>113</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18" si="13">_xlfn.TEXTJOIN("",FALSE,G18,":",H18,".",I18)</f>
+        <f t="shared" ref="J18" si="16">_xlfn.TEXTJOIN("",FALSE,G18,":",H18,".",I18)</f>
         <v>4:05.113</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18" si="14">(G18*60)+(H18)+(I18/1000)</f>
+        <f t="shared" ref="K18" si="17">(G18*60)+(H18)+(I18/1000)</f>
         <v>245.113</v>
       </c>
       <c r="L18">
@@ -2704,47 +3444,47 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2">
         <v>530</v>
       </c>
-      <c r="E19" s="6" t="str">
-        <f>RIGHT(LEFT(C19,33),1)</f>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="2">
         <v>3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="2">
         <v>56</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="2">
         <v>135</v>
       </c>
-      <c r="J19" s="5" t="str">
-        <f t="shared" ref="J19" si="15">_xlfn.TEXTJOIN("",FALSE,G19,":",H19,".",I19)</f>
+      <c r="J19" s="2" t="str">
+        <f t="shared" ref="J19" si="18">_xlfn.TEXTJOIN("",FALSE,G19,":",H19,".",I19)</f>
         <v>3:56.135</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" ref="K19" si="16">(G19*60)+(H19)+(I19/1000)</f>
+      <c r="K19" s="2">
+        <f t="shared" ref="K19" si="19">(G19*60)+(H19)+(I19/1000)</f>
         <v>236.13499999999999</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20">
         <v>21</v>
       </c>
@@ -2754,37 +3494,37 @@
       <c r="D20">
         <v>550</v>
       </c>
-      <c r="E20" s="9" t="str">
-        <f>RIGHT(LEFT(C20,33),1)</f>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="2"/>
+      <c r="F20">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20">
         <v>56</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20">
         <v>135</v>
       </c>
-      <c r="J20" s="10" t="str">
-        <f t="shared" ref="J20" si="17">_xlfn.TEXTJOIN("",FALSE,G20,":",H20,".",I20)</f>
+      <c r="J20" t="str">
+        <f t="shared" ref="J20" si="20">_xlfn.TEXTJOIN("",FALSE,G20,":",H20,".",I20)</f>
         <v>3:56.135</v>
       </c>
-      <c r="K20" s="10">
-        <f t="shared" ref="K20" si="18">(G20*60)+(H20)+(I20/1000)</f>
+      <c r="K20">
+        <f t="shared" ref="K20" si="21">(G20*60)+(H20)+(I20/1000)</f>
         <v>236.13499999999999</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21">
         <v>22</v>
       </c>
@@ -2794,37 +3534,37 @@
       <c r="D21">
         <v>600</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f>RIGHT(LEFT(C21,33),1)</f>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="2"/>
+      <c r="F21">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21">
         <v>56</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21">
         <v>135</v>
       </c>
-      <c r="J21" s="10" t="str">
-        <f t="shared" ref="J21" si="19">_xlfn.TEXTJOIN("",FALSE,G21,":",H21,".",I21)</f>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21" si="22">_xlfn.TEXTJOIN("",FALSE,G21,":",H21,".",I21)</f>
         <v>3:56.135</v>
       </c>
-      <c r="K21" s="10">
-        <f t="shared" ref="K21" si="20">(G21*60)+(H21)+(I21/1000)</f>
+      <c r="K21">
+        <f t="shared" ref="K21" si="23">(G21*60)+(H21)+(I21/1000)</f>
         <v>236.13499999999999</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22">
         <v>23</v>
       </c>
@@ -2834,12 +3574,12 @@
       <c r="D22">
         <v>650</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f>RIGHT(LEFT(C22,33),1)</f>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="2"/>
+      <c r="F22">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G22">
@@ -2851,20 +3591,20 @@
       <c r="I22">
         <v>202</v>
       </c>
-      <c r="J22" s="10" t="str">
-        <f t="shared" ref="J22" si="21">_xlfn.TEXTJOIN("",FALSE,G22,":",H22,".",I22)</f>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22" si="24">_xlfn.TEXTJOIN("",FALSE,G22,":",H22,".",I22)</f>
         <v>3:55.202</v>
       </c>
-      <c r="K22" s="10">
-        <f t="shared" ref="K22" si="22">(G22*60)+(H22)+(I22/1000)</f>
+      <c r="K22">
+        <f t="shared" ref="K22" si="25">(G22*60)+(H22)+(I22/1000)</f>
         <v>235.202</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23">
         <v>24</v>
       </c>
@@ -2874,12 +3614,12 @@
       <c r="D23">
         <v>660</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f>RIGHT(LEFT(C23,33),1)</f>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="2"/>
+      <c r="F23">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="G23">
@@ -2892,240 +3632,240 @@
         <f>"068"</f>
         <v>068</v>
       </c>
-      <c r="J23" s="10" t="str">
-        <f t="shared" ref="J23:J26" si="23">_xlfn.TEXTJOIN("",FALSE,G23,":",H23,".",I23)</f>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J26" si="26">_xlfn.TEXTJOIN("",FALSE,G23,":",H23,".",I23)</f>
         <v>3:54.068</v>
       </c>
-      <c r="K23" s="10">
-        <f t="shared" ref="K23:K26" si="24">(G23*60)+(H23)+(I23/1000)</f>
+      <c r="K23">
+        <f t="shared" ref="K23:K26" si="27">(G23*60)+(H23)+(I23/1000)</f>
         <v>234.06800000000001</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="str">
-        <f>RIGHT(LEFT(C25,33),1)</f>
+      <c r="E25" s="3" t="str">
+        <f t="shared" ref="E25:E51" si="28">RIGHT(LEFT(C25,33),1)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="2">
         <v>9</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="2">
         <v>31</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="2">
         <v>461</v>
       </c>
-      <c r="J25" s="5" t="str">
-        <f t="shared" si="23"/>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>9:31.461</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="24"/>
+      <c r="K25" s="2">
+        <f t="shared" si="27"/>
         <v>571.46100000000001</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2">
         <v>20</v>
       </c>
-      <c r="E26" s="6" t="str">
-        <f>RIGHT(LEFT(C26,33),1)</f>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="2"/>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="2">
         <v>8</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="2">
         <v>24</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="2">
         <v>145</v>
       </c>
-      <c r="J26" s="5" t="str">
-        <f t="shared" si="23"/>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>8:24.145</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="24"/>
+      <c r="K26" s="2">
+        <f t="shared" si="27"/>
         <v>504.14499999999998</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2">
         <v>30</v>
       </c>
-      <c r="E27" s="6" t="str">
-        <f>RIGHT(LEFT(C27,33),1)</f>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="2"/>
+      <c r="F27" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="2">
         <v>6</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="H27" s="2" t="str">
         <f>"01"</f>
         <v>01</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="2">
         <v>138</v>
       </c>
-      <c r="J27" s="5" t="str">
-        <f t="shared" ref="J27" si="25">_xlfn.TEXTJOIN("",FALSE,G27,":",H27,".",I27)</f>
+      <c r="J27" s="2" t="str">
+        <f t="shared" ref="J27" si="29">_xlfn.TEXTJOIN("",FALSE,G27,":",H27,".",I27)</f>
         <v>6:01.138</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" ref="K27" si="26">(G27*60)+(H27)+(I27/1000)</f>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27" si="30">(G27*60)+(H27)+(I27/1000)</f>
         <v>361.13799999999998</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="2">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2">
         <v>40</v>
       </c>
-      <c r="E28" s="6" t="str">
-        <f>RIGHT(LEFT(C28,33),1)</f>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="2"/>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="2">
         <v>5</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="2">
         <v>57</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="I28" s="2" t="str">
         <f>"130"</f>
         <v>130</v>
       </c>
-      <c r="J28" s="5" t="str">
-        <f t="shared" ref="J28" si="27">_xlfn.TEXTJOIN("",FALSE,G28,":",H28,".",I28)</f>
+      <c r="J28" s="2" t="str">
+        <f t="shared" ref="J28" si="31">_xlfn.TEXTJOIN("",FALSE,G28,":",H28,".",I28)</f>
         <v>5:57.130</v>
       </c>
-      <c r="K28" s="5">
-        <f t="shared" ref="K28" si="28">(G28*60)+(H28)+(I28/1000)</f>
+      <c r="K28" s="2">
+        <f t="shared" ref="K28" si="32">(G28*60)+(H28)+(I28/1000)</f>
         <v>357.13</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="str">
-        <f>RIGHT(LEFT(C29,33),1)</f>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="2"/>
+      <c r="F29" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <v>56</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <v>323</v>
       </c>
-      <c r="J29" s="5" t="str">
-        <f t="shared" ref="J29" si="29">_xlfn.TEXTJOIN("",FALSE,G29,":",H29,".",I29)</f>
+      <c r="J29" s="2" t="str">
+        <f t="shared" ref="J29" si="33">_xlfn.TEXTJOIN("",FALSE,G29,":",H29,".",I29)</f>
         <v>5:56.323</v>
       </c>
-      <c r="K29" s="5">
-        <f t="shared" ref="K29" si="30">(G29*60)+(H29)+(I29/1000)</f>
+      <c r="K29" s="2">
+        <f t="shared" ref="K29" si="34">(G29*60)+(H29)+(I29/1000)</f>
         <v>356.32299999999998</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30">
         <v>6</v>
       </c>
@@ -3135,12 +3875,12 @@
       <c r="D30">
         <v>60</v>
       </c>
-      <c r="E30" s="9" t="str">
-        <f>RIGHT(LEFT(C30,33),1)</f>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F30" s="10">
-        <f t="shared" si="2"/>
+      <c r="F30">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G30">
@@ -3152,61 +3892,61 @@
       <c r="I30">
         <v>323</v>
       </c>
-      <c r="J30" s="10" t="str">
-        <f t="shared" ref="J30" si="31">_xlfn.TEXTJOIN("",FALSE,G30,":",H30,".",I30)</f>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30" si="35">_xlfn.TEXTJOIN("",FALSE,G30,":",H30,".",I30)</f>
         <v>5:56.323</v>
       </c>
-      <c r="K30" s="10">
-        <f t="shared" ref="K30" si="32">(G30*60)+(H30)+(I30/1000)</f>
+      <c r="K30">
+        <f t="shared" ref="K30" si="36">(G30*60)+(H30)+(I30/1000)</f>
         <v>356.32299999999998</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2">
         <v>7</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>70</v>
       </c>
-      <c r="E31" s="6" t="str">
-        <f>RIGHT(LEFT(C31,33),1)</f>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="2"/>
+      <c r="F31" s="2">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2">
         <v>53</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="I31" s="2" t="str">
         <f>"990"</f>
         <v>990</v>
       </c>
-      <c r="J31" s="5" t="str">
-        <f t="shared" ref="J31" si="33">_xlfn.TEXTJOIN("",FALSE,G31,":",H31,".",I31)</f>
+      <c r="J31" s="2" t="str">
+        <f t="shared" ref="J31" si="37">_xlfn.TEXTJOIN("",FALSE,G31,":",H31,".",I31)</f>
         <v>5:53.990</v>
       </c>
-      <c r="K31" s="5">
-        <f t="shared" ref="K31" si="34">(G31*60)+(H31)+(I31/1000)</f>
+      <c r="K31" s="2">
+        <f t="shared" ref="K31" si="38">(G31*60)+(H31)+(I31/1000)</f>
         <v>353.99</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="4"/>
       <c r="B32">
         <v>8</v>
       </c>
@@ -3216,12 +3956,12 @@
       <c r="D32">
         <v>80</v>
       </c>
-      <c r="E32" s="9" t="str">
-        <f>RIGHT(LEFT(C32,33),1)</f>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F32" s="10">
-        <f>10-E32</f>
+      <c r="F32">
+        <f t="shared" ref="F32:F51" si="39">10-E32</f>
         <v>5</v>
       </c>
       <c r="G32">
@@ -3234,15 +3974,15 @@
         <f>"990"</f>
         <v>990</v>
       </c>
-      <c r="J32" s="10" t="str">
-        <f t="shared" ref="J32" si="35">_xlfn.TEXTJOIN("",FALSE,G32,":",H32,".",I32)</f>
+      <c r="J32" t="str">
+        <f t="shared" ref="J32" si="40">_xlfn.TEXTJOIN("",FALSE,G32,":",H32,".",I32)</f>
         <v>5:53.990</v>
       </c>
-      <c r="K32" s="10">
-        <f t="shared" ref="K32" si="36">(G32*60)+(H32)+(I32/1000)</f>
+      <c r="K32">
+        <f t="shared" ref="K32" si="41">(G32*60)+(H32)+(I32/1000)</f>
         <v>353.99</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32">
         <v>39</v>
       </c>
     </row>
@@ -3256,12 +3996,12 @@
       <c r="D33">
         <v>80</v>
       </c>
-      <c r="E33" s="9" t="str">
-        <f>RIGHT(LEFT(C33,33),1)</f>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F33" s="10">
-        <f>10-E33</f>
+      <c r="F33">
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="G33">
@@ -3274,15 +4014,15 @@
         <f>"990"</f>
         <v>990</v>
       </c>
-      <c r="J33" s="10" t="str">
-        <f t="shared" ref="J33" si="37">_xlfn.TEXTJOIN("",FALSE,G33,":",H33,".",I33)</f>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33" si="42">_xlfn.TEXTJOIN("",FALSE,G33,":",H33,".",I33)</f>
         <v>5:53.990</v>
       </c>
-      <c r="K33" s="10">
-        <f t="shared" ref="K33" si="38">(G33*60)+(H33)+(I33/1000)</f>
+      <c r="K33">
+        <f t="shared" ref="K33" si="43">(G33*60)+(H33)+(I33/1000)</f>
         <v>353.99</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33">
         <v>39</v>
       </c>
     </row>
@@ -3296,12 +4036,12 @@
       <c r="D34">
         <v>90</v>
       </c>
-      <c r="E34" s="9" t="str">
-        <f>RIGHT(LEFT(C34,33),1)</f>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F34" s="10">
-        <f>10-E34</f>
+      <c r="F34">
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="G34">
@@ -3314,55 +4054,55 @@
         <f>"990"</f>
         <v>990</v>
       </c>
-      <c r="J34" s="10" t="str">
-        <f t="shared" ref="J34:J36" si="39">_xlfn.TEXTJOIN("",FALSE,G34,":",H34,".",I34)</f>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J36" si="44">_xlfn.TEXTJOIN("",FALSE,G34,":",H34,".",I34)</f>
         <v>5:53.990</v>
       </c>
-      <c r="K34" s="10">
-        <f t="shared" ref="K34:K36" si="40">(G34*60)+(H34)+(I34/1000)</f>
+      <c r="K34">
+        <f t="shared" ref="K34:K36" si="45">(G34*60)+(H34)+(I34/1000)</f>
         <v>353.99</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>11</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>120</v>
       </c>
-      <c r="E35" s="6" t="str">
-        <f>RIGHT(LEFT(C35,33),1)</f>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F35" s="5">
-        <f>10-E35</f>
+      <c r="F35" s="2">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="2">
         <v>41</v>
       </c>
-      <c r="I35" s="5" t="str">
+      <c r="I35" s="2" t="str">
         <f>"940"</f>
         <v>940</v>
       </c>
-      <c r="J35" s="5" t="str">
-        <f t="shared" si="39"/>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="44"/>
         <v>4:41.940</v>
       </c>
-      <c r="K35" s="5">
-        <f t="shared" si="40"/>
+      <c r="K35" s="2">
+        <f t="shared" si="45"/>
         <v>281.94</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="2">
         <v>22</v>
       </c>
     </row>
@@ -3376,12 +4116,12 @@
       <c r="D36">
         <v>150</v>
       </c>
-      <c r="E36" s="9" t="str">
-        <f>RIGHT(LEFT(C36,33),1)</f>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F36" s="10">
-        <f>10-E36</f>
+      <c r="F36">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="G36">
@@ -3394,15 +4134,15 @@
         <f>"012"</f>
         <v>012</v>
       </c>
-      <c r="J36" s="10" t="str">
-        <f t="shared" si="39"/>
+      <c r="J36" t="str">
+        <f t="shared" si="44"/>
         <v>4:10.012</v>
       </c>
-      <c r="K36" s="10">
-        <f t="shared" si="40"/>
+      <c r="K36">
+        <f t="shared" si="45"/>
         <v>250.012</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36">
         <v>15</v>
       </c>
     </row>
@@ -3416,12 +4156,12 @@
       <c r="D37">
         <v>180</v>
       </c>
-      <c r="E37" s="9" t="str">
-        <f>RIGHT(LEFT(C37,33),1)</f>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F37" s="10">
-        <f>10-E37</f>
+      <c r="F37">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="G37">
@@ -3434,15 +4174,15 @@
         <f>"012"</f>
         <v>012</v>
       </c>
-      <c r="J37" s="10" t="str">
-        <f t="shared" ref="J37" si="41">_xlfn.TEXTJOIN("",FALSE,G37,":",H37,".",I37)</f>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37" si="46">_xlfn.TEXTJOIN("",FALSE,G37,":",H37,".",I37)</f>
         <v>4:10.012</v>
       </c>
-      <c r="K37" s="10">
-        <f t="shared" ref="K37" si="42">(G37*60)+(H37)+(I37/1000)</f>
+      <c r="K37">
+        <f t="shared" ref="K37" si="47">(G37*60)+(H37)+(I37/1000)</f>
         <v>250.012</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37">
         <v>15</v>
       </c>
     </row>
@@ -3456,12 +4196,12 @@
       <c r="D38">
         <v>180</v>
       </c>
-      <c r="E38" s="9" t="str">
-        <f>RIGHT(LEFT(C38,33),1)</f>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F38" s="10">
-        <f>10-E38</f>
+      <c r="F38">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="G38">
@@ -3474,15 +4214,15 @@
         <f>"012"</f>
         <v>012</v>
       </c>
-      <c r="J38" s="10" t="str">
-        <f t="shared" ref="J38" si="43">_xlfn.TEXTJOIN("",FALSE,G38,":",H38,".",I38)</f>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38" si="48">_xlfn.TEXTJOIN("",FALSE,G38,":",H38,".",I38)</f>
         <v>4:10.012</v>
       </c>
-      <c r="K38" s="10">
-        <f t="shared" ref="K38" si="44">(G38*60)+(H38)+(I38/1000)</f>
+      <c r="K38">
+        <f t="shared" ref="K38" si="49">(G38*60)+(H38)+(I38/1000)</f>
         <v>250.012</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38">
         <v>15</v>
       </c>
     </row>
@@ -3496,12 +4236,12 @@
       <c r="D39">
         <v>240</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f>RIGHT(LEFT(C39,33),1)</f>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F39" s="10">
-        <f>10-E39</f>
+      <c r="F39">
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="G39">
@@ -3514,15 +4254,15 @@
         <f>"012"</f>
         <v>012</v>
       </c>
-      <c r="J39" s="10" t="str">
-        <f t="shared" ref="J39" si="45">_xlfn.TEXTJOIN("",FALSE,G39,":",H39,".",I39)</f>
+      <c r="J39" t="str">
+        <f t="shared" ref="J39" si="50">_xlfn.TEXTJOIN("",FALSE,G39,":",H39,".",I39)</f>
         <v>4:10.012</v>
       </c>
-      <c r="K39" s="10">
-        <f t="shared" ref="K39" si="46">(G39*60)+(H39)+(I39/1000)</f>
+      <c r="K39">
+        <f t="shared" ref="K39" si="51">(G39*60)+(H39)+(I39/1000)</f>
         <v>250.012</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39">
         <v>15</v>
       </c>
     </row>
@@ -3536,12 +4276,12 @@
       <c r="D40">
         <v>270</v>
       </c>
-      <c r="E40" s="9" t="str">
-        <f>RIGHT(LEFT(C40,33),1)</f>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="F40" s="10">
-        <f>10-E40</f>
+      <c r="F40">
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="G40">
@@ -3554,55 +4294,55 @@
         <f>"012"</f>
         <v>012</v>
       </c>
-      <c r="J40" s="10" t="str">
-        <f t="shared" ref="J40" si="47">_xlfn.TEXTJOIN("",FALSE,G40,":",H40,".",I40)</f>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40" si="52">_xlfn.TEXTJOIN("",FALSE,G40,":",H40,".",I40)</f>
         <v>4:10.012</v>
       </c>
-      <c r="K40" s="10">
-        <f t="shared" ref="K40" si="48">(G40*60)+(H40)+(I40/1000)</f>
+      <c r="K40">
+        <f t="shared" ref="K40" si="53">(G40*60)+(H40)+(I40/1000)</f>
         <v>250.012</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <v>17</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <v>300</v>
       </c>
-      <c r="E41" s="6" t="str">
-        <f>RIGHT(LEFT(C41,33),1)</f>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="F41" s="5">
-        <f>10-E41</f>
+      <c r="F41" s="2">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="2" t="str">
         <f>"03"</f>
         <v>03</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="2">
         <v>124</v>
       </c>
-      <c r="J41" s="5" t="str">
-        <f t="shared" ref="J41" si="49">_xlfn.TEXTJOIN("",FALSE,G41,":",H41,".",I41)</f>
+      <c r="J41" s="2" t="str">
+        <f t="shared" ref="J41" si="54">_xlfn.TEXTJOIN("",FALSE,G41,":",H41,".",I41)</f>
         <v>4:03.124</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" ref="K41" si="50">(G41*60)+(H41)+(I41/1000)</f>
+      <c r="K41" s="2">
+        <f t="shared" ref="K41" si="55">(G41*60)+(H41)+(I41/1000)</f>
         <v>243.124</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="2">
         <v>15</v>
       </c>
     </row>
@@ -3616,12 +4356,12 @@
       <c r="D42">
         <v>330</v>
       </c>
-      <c r="E42" s="9" t="str">
-        <f>RIGHT(LEFT(C42,33),1)</f>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="F42" s="10">
-        <f>10-E42</f>
+      <c r="F42">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="G42">
@@ -3634,54 +4374,54 @@
       <c r="I42">
         <v>124</v>
       </c>
-      <c r="J42" s="10" t="str">
-        <f t="shared" ref="J42" si="51">_xlfn.TEXTJOIN("",FALSE,G42,":",H42,".",I42)</f>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42" si="56">_xlfn.TEXTJOIN("",FALSE,G42,":",H42,".",I42)</f>
         <v>4:03.124</v>
       </c>
-      <c r="K42" s="10">
-        <f t="shared" ref="K42" si="52">(G42*60)+(H42)+(I42/1000)</f>
+      <c r="K42">
+        <f t="shared" ref="K42" si="57">(G42*60)+(H42)+(I42/1000)</f>
         <v>243.124</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>19</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>400</v>
       </c>
-      <c r="E43" s="6" t="str">
-        <f>RIGHT(LEFT(C43,33),1)</f>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F43" s="5">
-        <f>10-E43</f>
+      <c r="F43" s="2">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>3</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="2">
         <v>40</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="2">
         <v>524</v>
       </c>
-      <c r="J43" s="5" t="str">
-        <f t="shared" ref="J43" si="53">_xlfn.TEXTJOIN("",FALSE,G43,":",H43,".",I43)</f>
+      <c r="J43" s="2" t="str">
+        <f t="shared" ref="J43" si="58">_xlfn.TEXTJOIN("",FALSE,G43,":",H43,".",I43)</f>
         <v>3:40.524</v>
       </c>
-      <c r="K43" s="5">
-        <f t="shared" ref="K43" si="54">(G43*60)+(H43)+(I43/1000)</f>
+      <c r="K43" s="2">
+        <f t="shared" ref="K43" si="59">(G43*60)+(H43)+(I43/1000)</f>
         <v>220.524</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="2">
         <v>8</v>
       </c>
     </row>
@@ -3695,12 +4435,12 @@
       <c r="D44">
         <v>430</v>
       </c>
-      <c r="E44" s="9" t="str">
-        <f>RIGHT(LEFT(C44,33),1)</f>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F44" s="10">
-        <f>10-E44</f>
+      <c r="F44">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="G44">
@@ -3712,15 +4452,15 @@
       <c r="I44">
         <v>524</v>
       </c>
-      <c r="J44" s="10" t="str">
-        <f t="shared" ref="J44" si="55">_xlfn.TEXTJOIN("",FALSE,G44,":",H44,".",I44)</f>
+      <c r="J44" t="str">
+        <f t="shared" ref="J44" si="60">_xlfn.TEXTJOIN("",FALSE,G44,":",H44,".",I44)</f>
         <v>3:40.524</v>
       </c>
-      <c r="K44" s="10">
-        <f t="shared" ref="K44" si="56">(G44*60)+(H44)+(I44/1000)</f>
+      <c r="K44">
+        <f t="shared" ref="K44" si="61">(G44*60)+(H44)+(I44/1000)</f>
         <v>220.524</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44">
         <v>8</v>
       </c>
     </row>
@@ -3734,12 +4474,12 @@
       <c r="D45">
         <v>500</v>
       </c>
-      <c r="E45" s="9" t="str">
-        <f>RIGHT(LEFT(C45,33),1)</f>
+      <c r="E45" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F45" s="10">
-        <f>10-E45</f>
+      <c r="F45">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="G45">
@@ -3751,15 +4491,15 @@
       <c r="I45">
         <v>524</v>
       </c>
-      <c r="J45" s="10" t="str">
-        <f t="shared" ref="J45" si="57">_xlfn.TEXTJOIN("",FALSE,G45,":",H45,".",I45)</f>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45" si="62">_xlfn.TEXTJOIN("",FALSE,G45,":",H45,".",I45)</f>
         <v>3:40.524</v>
       </c>
-      <c r="K45" s="10">
-        <f t="shared" ref="K45" si="58">(G45*60)+(H45)+(I45/1000)</f>
+      <c r="K45">
+        <f t="shared" ref="K45" si="63">(G45*60)+(H45)+(I45/1000)</f>
         <v>220.524</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45">
         <v>8</v>
       </c>
     </row>
@@ -3773,12 +4513,12 @@
       <c r="D46">
         <v>500</v>
       </c>
-      <c r="E46" s="9" t="str">
-        <f>RIGHT(LEFT(C46,33),1)</f>
+      <c r="E46" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F46" s="10">
-        <f>10-E46</f>
+      <c r="F46">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="G46">
@@ -3790,54 +4530,54 @@
       <c r="I46">
         <v>524</v>
       </c>
-      <c r="J46" s="10" t="str">
-        <f t="shared" ref="J46" si="59">_xlfn.TEXTJOIN("",FALSE,G46,":",H46,".",I46)</f>
+      <c r="J46" t="str">
+        <f t="shared" ref="J46" si="64">_xlfn.TEXTJOIN("",FALSE,G46,":",H46,".",I46)</f>
         <v>3:40.524</v>
       </c>
-      <c r="K46" s="10">
-        <f t="shared" ref="K46" si="60">(G46*60)+(H46)+(I46/1000)</f>
+      <c r="K46">
+        <f t="shared" ref="K46" si="65">(G46*60)+(H46)+(I46/1000)</f>
         <v>220.524</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <v>23</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <v>530</v>
       </c>
-      <c r="E47" s="6" t="str">
-        <f>RIGHT(LEFT(C47,33),1)</f>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F47" s="5">
-        <f>10-E47</f>
+      <c r="F47" s="2">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="2">
         <v>3</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="2">
         <v>35</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="2">
         <v>991</v>
       </c>
-      <c r="J47" s="5" t="str">
-        <f t="shared" ref="J47" si="61">_xlfn.TEXTJOIN("",FALSE,G47,":",H47,".",I47)</f>
+      <c r="J47" s="2" t="str">
+        <f t="shared" ref="J47" si="66">_xlfn.TEXTJOIN("",FALSE,G47,":",H47,".",I47)</f>
         <v>3:35.991</v>
       </c>
-      <c r="K47" s="5">
-        <f t="shared" ref="K47" si="62">(G47*60)+(H47)+(I47/1000)</f>
+      <c r="K47" s="2">
+        <f t="shared" ref="K47" si="67">(G47*60)+(H47)+(I47/1000)</f>
         <v>215.99100000000001</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="2">
         <v>6</v>
       </c>
     </row>
@@ -3851,12 +4591,12 @@
       <c r="D48">
         <v>600</v>
       </c>
-      <c r="E48" s="9" t="str">
-        <f>RIGHT(LEFT(C48,33),1)</f>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="F48" s="10">
-        <f>10-E48</f>
+      <c r="F48">
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="G48">
@@ -3868,15 +4608,15 @@
       <c r="I48">
         <v>991</v>
       </c>
-      <c r="J48" s="10" t="str">
-        <f t="shared" ref="J48" si="63">_xlfn.TEXTJOIN("",FALSE,G48,":",H48,".",I48)</f>
+      <c r="J48" t="str">
+        <f t="shared" ref="J48" si="68">_xlfn.TEXTJOIN("",FALSE,G48,":",H48,".",I48)</f>
         <v>3:35.991</v>
       </c>
-      <c r="K48" s="10">
-        <f t="shared" ref="K48" si="64">(G48*60)+(H48)+(I48/1000)</f>
+      <c r="K48">
+        <f t="shared" ref="K48" si="69">(G48*60)+(H48)+(I48/1000)</f>
         <v>215.99100000000001</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48">
         <v>6</v>
       </c>
     </row>
@@ -3890,12 +4630,12 @@
       <c r="D49">
         <v>630</v>
       </c>
-      <c r="E49" s="9" t="str">
-        <f>RIGHT(LEFT(C49,33),1)</f>
+      <c r="E49" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
-      <c r="F49" s="10">
-        <f>10-E49</f>
+      <c r="F49">
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="G49">
@@ -3907,15 +4647,15 @@
       <c r="I49">
         <v>991</v>
       </c>
-      <c r="J49" s="10" t="str">
-        <f t="shared" ref="J49" si="65">_xlfn.TEXTJOIN("",FALSE,G49,":",H49,".",I49)</f>
+      <c r="J49" t="str">
+        <f t="shared" ref="J49" si="70">_xlfn.TEXTJOIN("",FALSE,G49,":",H49,".",I49)</f>
         <v>3:35.991</v>
       </c>
-      <c r="K49" s="10">
-        <f t="shared" ref="K49" si="66">(G49*60)+(H49)+(I49/1000)</f>
+      <c r="K49">
+        <f t="shared" ref="K49" si="71">(G49*60)+(H49)+(I49/1000)</f>
         <v>215.99100000000001</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49">
         <v>6</v>
       </c>
     </row>
@@ -3929,12 +4669,12 @@
       <c r="D50">
         <v>700</v>
       </c>
-      <c r="E50" s="9" t="str">
-        <f>RIGHT(LEFT(C50,33),1)</f>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
-      <c r="F50" s="10">
-        <f>10-E50</f>
+      <c r="F50">
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="G50">
@@ -3946,15 +4686,15 @@
       <c r="I50">
         <v>991</v>
       </c>
-      <c r="J50" s="10" t="str">
-        <f t="shared" ref="J50" si="67">_xlfn.TEXTJOIN("",FALSE,G50,":",H50,".",I50)</f>
+      <c r="J50" t="str">
+        <f t="shared" ref="J50" si="72">_xlfn.TEXTJOIN("",FALSE,G50,":",H50,".",I50)</f>
         <v>3:35.991</v>
       </c>
-      <c r="K50" s="10">
-        <f t="shared" ref="K50" si="68">(G50*60)+(H50)+(I50/1000)</f>
+      <c r="K50">
+        <f t="shared" ref="K50" si="73">(G50*60)+(H50)+(I50/1000)</f>
         <v>215.99100000000001</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50">
         <v>6</v>
       </c>
     </row>
@@ -3968,12 +4708,12 @@
       <c r="D51">
         <v>730</v>
       </c>
-      <c r="E51" s="9" t="str">
-        <f>RIGHT(LEFT(C51,33),1)</f>
+      <c r="E51" s="1" t="str">
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="F51" s="10">
-        <f>10-E51</f>
+      <c r="F51">
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="G51">
@@ -3985,32 +4725,32 @@
       <c r="I51">
         <v>991</v>
       </c>
-      <c r="J51" s="10" t="str">
-        <f t="shared" ref="J51" si="69">_xlfn.TEXTJOIN("",FALSE,G51,":",H51,".",I51)</f>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51" si="74">_xlfn.TEXTJOIN("",FALSE,G51,":",H51,".",I51)</f>
         <v>3:35.991</v>
       </c>
-      <c r="K51" s="10">
-        <f t="shared" ref="K51" si="70">(G51*60)+(H51)+(I51/1000)</f>
+      <c r="K51">
+        <f t="shared" ref="K51" si="75">(G51*60)+(H51)+(I51/1000)</f>
         <v>215.99100000000001</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -4041,15 +4781,15 @@
       <c r="I54">
         <v>128</v>
       </c>
-      <c r="J54" s="10" t="str">
-        <f t="shared" ref="J54" si="71">_xlfn.TEXTJOIN("",FALSE,G54,":",H54,".",I54)</f>
+      <c r="J54" t="str">
+        <f t="shared" ref="J54" si="76">_xlfn.TEXTJOIN("",FALSE,G54,":",H54,".",I54)</f>
         <v>3:57.128</v>
       </c>
-      <c r="K54" s="10">
-        <f t="shared" ref="K54" si="72">(G54*60)+(H54)+(I54/1000)</f>
+      <c r="K54">
+        <f t="shared" ref="K54" si="77">(G54*60)+(H54)+(I54/1000)</f>
         <v>237.12799999999999</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54">
         <v>2</v>
       </c>
     </row>
@@ -4079,15 +4819,15 @@
       <c r="I55">
         <v>193</v>
       </c>
-      <c r="J55" s="10" t="str">
-        <f t="shared" ref="J55" si="73">_xlfn.TEXTJOIN("",FALSE,G55,":",H55,".",I55)</f>
+      <c r="J55" t="str">
+        <f t="shared" ref="J55" si="78">_xlfn.TEXTJOIN("",FALSE,G55,":",H55,".",I55)</f>
         <v>3:50.193</v>
       </c>
-      <c r="K55" s="10">
-        <f t="shared" ref="K55" si="74">(G55*60)+(H55)+(I55/1000)</f>
+      <c r="K55">
+        <f t="shared" ref="K55" si="79">(G55*60)+(H55)+(I55/1000)</f>
         <v>230.19300000000001</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55">
         <v>1</v>
       </c>
     </row>
@@ -4117,15 +4857,15 @@
       <c r="I56">
         <v>193</v>
       </c>
-      <c r="J56" s="10" t="str">
-        <f t="shared" ref="J56" si="75">_xlfn.TEXTJOIN("",FALSE,G56,":",H56,".",I56)</f>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56" si="80">_xlfn.TEXTJOIN("",FALSE,G56,":",H56,".",I56)</f>
         <v>3:50.193</v>
       </c>
-      <c r="K56" s="10">
-        <f t="shared" ref="K56" si="76">(G56*60)+(H56)+(I56/1000)</f>
+      <c r="K56">
+        <f t="shared" ref="K56" si="81">(G56*60)+(H56)+(I56/1000)</f>
         <v>230.19300000000001</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56">
         <v>1</v>
       </c>
     </row>
@@ -4155,32 +4895,32 @@
       <c r="I57">
         <v>193</v>
       </c>
-      <c r="J57" s="10" t="str">
-        <f t="shared" ref="J57" si="77">_xlfn.TEXTJOIN("",FALSE,G57,":",H57,".",I57)</f>
+      <c r="J57" t="str">
+        <f t="shared" ref="J57" si="82">_xlfn.TEXTJOIN("",FALSE,G57,":",H57,".",I57)</f>
         <v>3:50.193</v>
       </c>
-      <c r="K57" s="10">
-        <f t="shared" ref="K57" si="78">(G57*60)+(H57)+(I57/1000)</f>
+      <c r="K57">
+        <f t="shared" ref="K57" si="83">(G57*60)+(H57)+(I57/1000)</f>
         <v>230.19300000000001</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -4211,15 +4951,15 @@
       <c r="I59">
         <v>138</v>
       </c>
-      <c r="J59" s="10" t="str">
-        <f t="shared" ref="J59:J62" si="79">_xlfn.TEXTJOIN("",FALSE,G59,":",H59,".",I59)</f>
+      <c r="J59" t="str">
+        <f t="shared" ref="J59:J62" si="84">_xlfn.TEXTJOIN("",FALSE,G59,":",H59,".",I59)</f>
         <v>3:50.138</v>
       </c>
-      <c r="K59" s="10">
-        <f t="shared" ref="K59:K62" si="80">(G59*60)+(H59)+(I59/1000)</f>
+      <c r="K59">
+        <f t="shared" ref="K59:K62" si="85">(G59*60)+(H59)+(I59/1000)</f>
         <v>230.13800000000001</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59">
         <v>3</v>
       </c>
     </row>
@@ -4252,15 +4992,15 @@
       <c r="I60">
         <v>922</v>
       </c>
-      <c r="J60" s="10" t="str">
-        <f t="shared" si="79"/>
+      <c r="J60" t="str">
+        <f t="shared" si="84"/>
         <v>3:47.922</v>
       </c>
-      <c r="K60" s="10">
-        <f t="shared" si="80"/>
+      <c r="K60">
+        <f t="shared" si="85"/>
         <v>227.922</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60">
         <v>1</v>
       </c>
     </row>
@@ -4293,15 +5033,15 @@
       <c r="I61">
         <v>660</v>
       </c>
-      <c r="J61" s="10" t="str">
-        <f t="shared" si="79"/>
+      <c r="J61" t="str">
+        <f t="shared" si="84"/>
         <v>3:41.660</v>
       </c>
-      <c r="K61" s="10">
-        <f t="shared" si="80"/>
+      <c r="K61">
+        <f t="shared" si="85"/>
         <v>221.66</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61">
         <v>0</v>
       </c>
     </row>
@@ -4334,15 +5074,15 @@
       <c r="I62">
         <v>456</v>
       </c>
-      <c r="J62" s="10" t="str">
-        <f t="shared" si="79"/>
+      <c r="J62" t="str">
+        <f t="shared" si="84"/>
         <v>3:41.456</v>
       </c>
-      <c r="K62" s="10">
-        <f t="shared" si="80"/>
+      <c r="K62">
+        <f t="shared" si="85"/>
         <v>221.45599999999999</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62">
         <v>0</v>
       </c>
     </row>
@@ -4374,36 +5114,36 @@
       <c r="I63">
         <v>456</v>
       </c>
-      <c r="J63" s="10" t="str">
-        <f t="shared" ref="J63" si="81">_xlfn.TEXTJOIN("",FALSE,G63,":",H63,".",I63)</f>
+      <c r="J63" t="str">
+        <f t="shared" ref="J63" si="86">_xlfn.TEXTJOIN("",FALSE,G63,":",H63,".",I63)</f>
         <v>3:41.456</v>
       </c>
-      <c r="K63" s="10">
-        <f t="shared" ref="K63" si="82">(G63*60)+(H63)+(I63/1000)</f>
+      <c r="K63">
+        <f t="shared" ref="K63" si="87">(G63*60)+(H63)+(I63/1000)</f>
         <v>221.45599999999999</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4430,21 +5170,21 @@
       <c r="I65">
         <v>594</v>
       </c>
-      <c r="J65" s="10" t="str">
-        <f t="shared" ref="J65" si="83">_xlfn.TEXTJOIN("",FALSE,G65,":",H65,".",I65)</f>
+      <c r="J65" t="str">
+        <f t="shared" ref="J65:J66" si="88">_xlfn.TEXTJOIN("",FALSE,G65,":",H65,".",I65)</f>
         <v>3:57.594</v>
       </c>
-      <c r="K65" s="10">
-        <f t="shared" ref="K65" si="84">(G65*60)+(H65)+(I65/1000)</f>
+      <c r="K65">
+        <f t="shared" ref="K65:K66" si="89">(G65*60)+(H65)+(I65/1000)</f>
         <v>237.59399999999999</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -4462,35 +5202,1574 @@
       <c r="F66" t="s">
         <v>51</v>
       </c>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="12"/>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66">
+        <v>35</v>
+      </c>
+      <c r="I66">
+        <v>797</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="88"/>
+        <v>3:35.797</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="89"/>
+        <v>215.797</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67">
+        <f>8*60</f>
+        <v>480</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>38</v>
+      </c>
+      <c r="I67">
+        <v>991</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67" si="90">_xlfn.TEXTJOIN("",FALSE,G67,":",H67,".",I67)</f>
+        <v>3:38.991</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67" si="91">(G67*60)+(H67)+(I67/1000)</f>
+        <v>218.99100000000001</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"JayModel-Clockwise-",D70,"min")</f>
+        <v>JayModel-Clockwise-10min</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70" t="str">
+        <f>"07"</f>
+        <v>07</v>
+      </c>
+      <c r="I70" t="str">
+        <f>"052"</f>
+        <v>052</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" ref="J70" si="92">_xlfn.TEXTJOIN("",FALSE,G70,":",H70,".",I70)</f>
+        <v>8:07.052</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70" si="93">(G70*60)+(H70)+(I70/1000)</f>
+        <v>487.05200000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" ref="C71:C78" si="94">_xlfn.TEXTJOIN("",FALSE,"JayModel-Clockwise-",D71,"min")</f>
+        <v>JayModel-Clockwise-20min</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>33</v>
+      </c>
+      <c r="I71">
+        <v>272</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" ref="J71" si="95">_xlfn.TEXTJOIN("",FALSE,G71,":",H71,".",I71)</f>
+        <v>6:33.272</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71" si="96">(G71*60)+(H71)+(I71/1000)</f>
+        <v>393.27199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-30min</v>
+      </c>
+      <c r="D72">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>33</v>
+      </c>
+      <c r="I72">
+        <v>456</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" ref="J72" si="97">_xlfn.TEXTJOIN("",FALSE,G72,":",H72,".",I72)</f>
+        <v>6:33.456</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72" si="98">(G72*60)+(H72)+(I72/1000)</f>
+        <v>393.45600000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-40min</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+      <c r="H73">
+        <v>56</v>
+      </c>
+      <c r="I73" t="str">
+        <f>"013"</f>
+        <v>013</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" ref="J73" si="99">_xlfn.TEXTJOIN("",FALSE,G73,":",H73,".",I73)</f>
+        <v>4:56.013</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73" si="100">(G73*60)+(H73)+(I73/1000)</f>
+        <v>296.01299999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-50min</v>
+      </c>
+      <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <v>53</v>
+      </c>
+      <c r="I74">
+        <v>403</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" ref="J74" si="101">_xlfn.TEXTJOIN("",FALSE,G74,":",H74,".",I74)</f>
+        <v>4:53.403</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74" si="102">(G74*60)+(H74)+(I74/1000)</f>
+        <v>293.40300000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-60min</v>
+      </c>
+      <c r="D75">
+        <v>60</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>53</v>
+      </c>
+      <c r="I75">
+        <v>337</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" ref="J75" si="103">_xlfn.TEXTJOIN("",FALSE,G75,":",H75,".",I75)</f>
+        <v>4:53.337</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75" si="104">(G75*60)+(H75)+(I75/1000)</f>
+        <v>293.33699999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-70min</v>
+      </c>
+      <c r="D76">
+        <v>70</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>53</v>
+      </c>
+      <c r="I76" t="str">
+        <f>"061"</f>
+        <v>061</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" ref="J76" si="105">_xlfn.TEXTJOIN("",FALSE,G76,":",H76,".",I76)</f>
+        <v>4:53.061</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76" si="106">(G76*60)+(H76)+(I76/1000)</f>
+        <v>293.06099999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-80min</v>
+      </c>
+      <c r="D77">
+        <v>80</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+      <c r="H77">
+        <v>53</v>
+      </c>
+      <c r="I77">
+        <v>935</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" ref="J77:J78" si="107">_xlfn.TEXTJOIN("",FALSE,G77,":",H77,".",I77)</f>
+        <v>4:53.935</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:K78" si="108">(G77*60)+(H77)+(I77/1000)</f>
+        <v>293.935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="94"/>
+        <v>JayModel-Clockwise-120min</v>
+      </c>
+      <c r="D78">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78">
+        <v>10</v>
+      </c>
+      <c r="I78">
+        <v>666</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="107"/>
+        <v>4:10.666</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="108"/>
+        <v>250.666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v1-Clockwise-",D80,"min")</f>
+        <v>Speed-Model-v1-Clockwise-30min</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <v>15</v>
+      </c>
+      <c r="I80">
+        <v>600</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" ref="J80" si="109">_xlfn.TEXTJOIN("",FALSE,G80,":",H80,".",I80)</f>
+        <v>5:15.600</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ref="K80" si="110">(G80*60)+(H80)+(I80/1000)</f>
+        <v>315.60000000000002</v>
+      </c>
+      <c r="L80">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v1-Clockwise-",D81,"min")</f>
+        <v>Speed-Model-v1-Clockwise-60min</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" t="s">
+        <v>51</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>18</v>
+      </c>
+      <c r="I81">
+        <v>674</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ref="J81" si="111">_xlfn.TEXTJOIN("",FALSE,G81,":",H81,".",I81)</f>
+        <v>4:18.674</v>
+      </c>
+      <c r="K81">
+        <f t="shared" ref="K81" si="112">(G81*60)+(H81)+(I81/1000)</f>
+        <v>258.67399999999998</v>
+      </c>
+      <c r="L81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v1-Clockwise-",D82,"min")</f>
+        <v>Speed-Model-v1-Clockwise-90min</v>
+      </c>
+      <c r="D82">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="str">
+        <f>"04"</f>
+        <v>04</v>
+      </c>
+      <c r="I82">
+        <v>392</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" ref="J82" si="113">_xlfn.TEXTJOIN("",FALSE,G82,":",H82,".",I82)</f>
+        <v>4:04.392</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82" si="114">(G82*60)+(H82)+(I82/1000)</f>
+        <v>244.392</v>
+      </c>
+      <c r="L82">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v1-Clockwise-",D83,"min")</f>
+        <v>Speed-Model-v1-Clockwise-120min</v>
+      </c>
+      <c r="D83">
+        <v>120</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+      <c r="H83">
+        <v>38</v>
+      </c>
+      <c r="I83">
+        <v>392</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" ref="J83:J84" si="115">_xlfn.TEXTJOIN("",FALSE,G83,":",H83,".",I83)</f>
+        <v>3:38.392</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:K84" si="116">(G83*60)+(H83)+(I83/1000)</f>
+        <v>218.392</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v3-Clockwise-",D84,"min")</f>
+        <v>Speed-Model-v3-Clockwise-150min</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" t="s">
+        <v>51</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <v>31</v>
+      </c>
+      <c r="I84">
+        <v>875</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="115"/>
+        <v>3:31.875</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="116"/>
+        <v>211.875</v>
+      </c>
+      <c r="L84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"Speed-Model-v3-Clockwise-final")</f>
+        <v>Speed-Model-v3-Clockwise-final</v>
+      </c>
+      <c r="D85">
+        <f>150+150</f>
+        <v>300</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>795</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" ref="J85" si="117">_xlfn.TEXTJOIN("",FALSE,G85,":",H85,".",I85)</f>
+        <v>3:13.795</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85" si="118">(G85*60)+(H85)+(I85/1000)</f>
+        <v>193.79499999999999</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"super-minimalist-",D87/60,"h")</f>
+        <v>super-minimalist-1h</v>
+      </c>
+      <c r="D87">
+        <v>60</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" t="s">
+        <v>51</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>58</v>
+      </c>
+      <c r="I87">
+        <v>986</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" ref="J87" si="119">_xlfn.TEXTJOIN("",FALSE,G87,":",H87,".",I87)</f>
+        <v>3:58.986</v>
+      </c>
+      <c r="K87">
+        <f t="shared" ref="K87" si="120">(G87*60)+(H87)+(I87/1000)</f>
+        <v>238.98599999999999</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ref="C88:C96" si="121">_xlfn.TEXTJOIN("",FALSE,"super-minimalist-",D88/60,"h")</f>
+        <v>super-minimalist-2h</v>
+      </c>
+      <c r="D88">
+        <f>D87+60</f>
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88" t="str">
+        <f>"00"</f>
+        <v>00</v>
+      </c>
+      <c r="I88">
+        <v>329</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" ref="J88" si="122">_xlfn.TEXTJOIN("",FALSE,G88,":",H88,".",I88)</f>
+        <v>4:00.329</v>
+      </c>
+      <c r="K88">
+        <f t="shared" ref="K88" si="123">(G88*60)+(H88)+(I88/1000)</f>
+        <v>240.32900000000001</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-3h</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ref="D89:D94" si="124">D88+60</f>
+        <v>180</v>
+      </c>
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <v>39</v>
+      </c>
+      <c r="I89">
+        <v>660</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" ref="J89:J94" si="125">_xlfn.TEXTJOIN("",FALSE,G89,":",H89,".",I89)</f>
+        <v>3:39.660</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ref="K89:K94" si="126">(G89*60)+(H89)+(I89/1000)</f>
+        <v>219.66</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-4h</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="124"/>
+        <v>240</v>
+      </c>
+      <c r="E90" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>35</v>
+      </c>
+      <c r="I90">
+        <v>863</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="125"/>
+        <v>3:35.863</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="126"/>
+        <v>215.863</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-5h</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="124"/>
+        <v>300</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" t="s">
+        <v>51</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>34</v>
+      </c>
+      <c r="I91">
+        <v>474</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="125"/>
+        <v>3:34.474</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="126"/>
+        <v>214.47399999999999</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-6h</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="124"/>
+        <v>360</v>
+      </c>
+      <c r="E92" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+      <c r="H92">
+        <v>35</v>
+      </c>
+      <c r="I92">
+        <v>131</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="125"/>
+        <v>3:35.131</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="126"/>
+        <v>215.131</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-7h</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="124"/>
+        <v>420</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>51</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>36</v>
+      </c>
+      <c r="I93">
+        <v>145</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="125"/>
+        <v>3:36.145</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="126"/>
+        <v>216.14500000000001</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-8h</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="124"/>
+        <v>480</v>
+      </c>
+      <c r="E94" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>41</v>
+      </c>
+      <c r="I94">
+        <v>391</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="125"/>
+        <v>3:41.391</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="126"/>
+        <v>221.39099999999999</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-9h</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ref="D95:D96" si="127">D94+60</f>
+        <v>540</v>
+      </c>
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>35</v>
+      </c>
+      <c r="I95">
+        <v>867</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" ref="J95:J96" si="128">_xlfn.TEXTJOIN("",FALSE,G95,":",H95,".",I95)</f>
+        <v>3:35.867</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K96" si="129">(G95*60)+(H95)+(I95/1000)</f>
+        <v>215.86699999999999</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="121"/>
+        <v>super-minimalist-10h</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="127"/>
+        <v>600</v>
+      </c>
+      <c r="E96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" t="s">
+        <v>51</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>38</v>
+      </c>
+      <c r="I96">
+        <v>457</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="128"/>
+        <v>3:38.457</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="129"/>
+        <v>218.45699999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B97" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"speed-model-v3-",D98/60,"h")</f>
+        <v>speed-model-v3-1h</v>
+      </c>
+      <c r="D98">
+        <v>60</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>40</v>
+      </c>
+      <c r="I98">
+        <v>527</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" ref="J98" si="130">_xlfn.TEXTJOIN("",FALSE,G98,":",H98,".",I98)</f>
+        <v>3:40.527</v>
+      </c>
+      <c r="K98">
+        <f>IF((G98*60)+(H98)+(I98/1000)=0, "", (G98*60)+(H98)+(I98/1000))</f>
+        <v>220.52699999999999</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f>A98</f>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"speed-model-v3-",D99/60,"h")</f>
+        <v>speed-model-v3-2h</v>
+      </c>
+      <c r="D99">
+        <f>D98+60</f>
+        <v>120</v>
+      </c>
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+      <c r="H99">
+        <v>41</v>
+      </c>
+      <c r="I99" t="str">
+        <f>"057"</f>
+        <v>057</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" ref="J99" si="131">_xlfn.TEXTJOIN("",FALSE,G99,":",H99,".",I99)</f>
+        <v>3:41.057</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ref="K99:K107" si="132">IF((G99*60)+(H99)+(I99/1000)=0, "", (G99*60)+(H99)+(I99/1000))</f>
+        <v>221.05699999999999</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" ref="A100:A106" si="133">A99</f>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" ref="C100:C106" si="134">_xlfn.TEXTJOIN("",FALSE,"speed-model-v3-",D100/60,"h")</f>
+        <v>speed-model-v3-3h</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ref="D100:D106" si="135">D99+60</f>
+        <v>180</v>
+      </c>
+      <c r="E100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100">
+        <v>22</v>
+      </c>
+      <c r="I100">
+        <v>593</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" ref="J100:J107" si="136">_xlfn.TEXTJOIN("",FALSE,G100,":",H100,".",I100)</f>
+        <v>3:22.593</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="132"/>
+        <v>202.59299999999999</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-4h</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="135"/>
+        <v>240</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+      <c r="H101">
+        <v>38</v>
+      </c>
+      <c r="I101">
+        <v>725</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="136"/>
+        <v>3:38.725</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="132"/>
+        <v>218.72499999999999</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-5h</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="135"/>
+        <v>300</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>32</v>
+      </c>
+      <c r="I102">
+        <v>859</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="136"/>
+        <v>3:32.859</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="132"/>
+        <v>212.85900000000001</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-6h</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="135"/>
+        <v>360</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" t="s">
+        <v>51</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>27</v>
+      </c>
+      <c r="I103">
+        <v>326</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="136"/>
+        <v>3:27.326</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="132"/>
+        <v>207.32599999999999</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-7h</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="135"/>
+        <v>420</v>
+      </c>
+      <c r="E104" t="s">
+        <v>51</v>
+      </c>
+      <c r="F104" t="s">
+        <v>51</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+      <c r="H104">
+        <v>26</v>
+      </c>
+      <c r="I104">
+        <v>860</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="136"/>
+        <v>3:26.860</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="132"/>
+        <v>206.86</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-8h</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="135"/>
+        <v>480</v>
+      </c>
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="H105">
+        <v>25</v>
+      </c>
+      <c r="I105">
+        <v>612</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="136"/>
+        <v>3:25.612</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="132"/>
+        <v>205.61199999999999</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f t="shared" si="133"/>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="134"/>
+        <v>speed-model-v3-9h</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="135"/>
+        <v>540</v>
+      </c>
+      <c r="E106" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106" t="s">
+        <v>51</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="136"/>
+        <v>:.</v>
+      </c>
+      <c r="K106" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f>A106</f>
+        <v>speed_model_v3</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="str">
+        <f>_xlfn.TEXTJOIN("",FALSE,"speed-model-v3-",D107/60,"h")</f>
+        <v>speed-model-v3-10h</v>
+      </c>
+      <c r="D107">
+        <f>D106+60</f>
+        <v>600</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107" t="s">
+        <v>51</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="136"/>
+        <v>:.</v>
+      </c>
+      <c r="K107" t="str">
+        <f t="shared" si="132"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B64:L64"/>
+  <mergeCells count="24">
+    <mergeCell ref="B97:L97"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="B86:L86"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="B53:L53"/>
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B64:L64"/>
+    <mergeCell ref="B69:L69"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L1:L3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>